--- a/config/languageFile.xlsx
+++ b/config/languageFile.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\ValenceSoftware_v2\ValenceSoftwarev2\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\CAMtools_CAMEL\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D43200-CF54-4522-9EEB-33DEF697B261}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10035"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +19,70 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={A646E28B-97F6-4AE2-BCBC-80D63BDE895B}</author>
+    <author>tc={A5E30C12-9A09-4005-AC0C-695CE60E1B9A}</author>
+  </authors>
+  <commentList>
+    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{A646E28B-97F6-4AE2-BCBC-80D63BDE895B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    I'm not sure whether "agreement or disagreement" might be an error here. I suppose it's more about the support or inhibion between concepts (that appear mentioned earlier in the table), right?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{951FEFAD-8A39-472C-B45E-1E8B581A6A94}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    I'm not sure whether "agreement or disagreement" might be an error here. I suppose it's more about the support or inhibion between concepts (that appear mentioned earlier in the table), right?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C54" authorId="1" shapeId="0" xr:uid="{A5E30C12-9A09-4005-AC0C-695CE60E1B9A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Should this realy be phrased as disagreement/agreement? For me personally disagreement/agreement would intuitively be pointing more to what I personally think or feel in terms of valence</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="239">
   <si>
     <t>english</t>
   </si>
@@ -114,9 +177,6 @@
     <t>&lt;b&gt;Update:&lt;/b&gt; Double click on existing concept</t>
   </si>
   <si>
-    <t>&lt;b&gt;Delete:&lt;/b&gt; Double click on existing concept and press on the “trash bin” symbol top right</t>
-  </si>
-  <si>
     <t>qr_concept_20</t>
   </si>
   <si>
@@ -153,9 +213,6 @@
     <t>&lt;b&gt;Change type and strength:&lt;/b&gt; Use the slider to change the emotional attribution and strength of the concept</t>
   </si>
   <si>
-    <t>&lt;b&gt;Add comment:&lt;/b&gt; type comment in the “Comment” section</t>
-  </si>
-  <si>
     <t>&lt;b&gt;Create:&lt;/b&gt; Click on two concepts to draw a connection</t>
   </si>
   <si>
@@ -207,15 +264,6 @@
     <t xml:space="preserve">Clicking on the buttons in the upper bar leads to the following results: </t>
   </si>
   <si>
-    <t>save Cognitive Affective Map and send data to the server</t>
-  </si>
-  <si>
-    <t>download Cognitive Affective Map as a picture</t>
-  </si>
-  <si>
-    <t>delete Cognitive Affective Map and no data will be send to the server</t>
-  </si>
-  <si>
     <t>qr_buttons_11</t>
   </si>
   <si>
@@ -327,12 +375,6 @@
     <t>Type and Strength of Connection</t>
   </si>
   <si>
-    <t>Disagreement</t>
-  </si>
-  <si>
-    <t>Agreement</t>
-  </si>
-  <si>
     <t>Direction of Connection</t>
   </si>
   <si>
@@ -348,12 +390,6 @@
     <t>Concepts influence each other in a one-sided direction. Press button multiple times to change direction</t>
   </si>
   <si>
-    <t>cd_05</t>
-  </si>
-  <si>
-    <t>cd_06</t>
-  </si>
-  <si>
     <t>qr_top</t>
   </si>
   <si>
@@ -379,12 +415,396 @@
   </si>
   <si>
     <t xml:space="preserve">Please do not change or minimize the browser window while the study is running. Only if there is a break in the course of the study. </t>
+  </si>
+  <si>
+    <t>Schließen</t>
+  </si>
+  <si>
+    <t>Cerrar</t>
+  </si>
+  <si>
+    <t>Bitte klicken Sie auf die Navigationsleiste, wenn Sie Hilfe brauchen, wie man eine Cognitive Affective Map zeichnet. Ansonsten können Sie dieses Fenster jetzt schließen.</t>
+  </si>
+  <si>
+    <t>Si necesita ayuda sobre como trazar un Cognitive Affective Map por favor haga clic en la barra de navegación, en caso contrario usted puede simplemente cerrar esta ventana</t>
+  </si>
+  <si>
+    <t>Referencia rápida</t>
+  </si>
+  <si>
+    <t>Schnellübersicht</t>
+  </si>
+  <si>
+    <t>Jedes Konzept erhält einen grundlegenden emotionalen Wert:</t>
+  </si>
+  <si>
+    <t>A cada concepto se le asigna un valor emocionál básico:</t>
+  </si>
+  <si>
+    <t>Positives Konzept</t>
+  </si>
+  <si>
+    <t>Negatives Konzept</t>
+  </si>
+  <si>
+    <t>Concepto positivo</t>
+  </si>
+  <si>
+    <t>Concepto negativo</t>
+  </si>
+  <si>
+    <t>Ambivalentes Konzept</t>
+  </si>
+  <si>
+    <t>Neutrales Konzept</t>
+  </si>
+  <si>
+    <t>Concepto ambivalente</t>
+  </si>
+  <si>
+    <t>Concepto neutro</t>
+  </si>
+  <si>
+    <t>Zeichnen Sie Verbindungen zwischen Konzepten, die in einem Zusammenhang zueinander stehen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traze conecciones entre conceptos que están relacionados entre si </t>
+  </si>
+  <si>
+    <t>Konzepte hemmen einander</t>
+  </si>
+  <si>
+    <t>Bewegen Sie Ihre Cognitive Affective Map</t>
+  </si>
+  <si>
+    <t>Los conceptos se inhiben mutualmente</t>
+  </si>
+  <si>
+    <t>dadurch, dass Sie den Cursor zum Rand des Zeichenfensters (grauer Bereich) bewegen</t>
+  </si>
+  <si>
+    <t>por mover el cursor del ratón hacia el borde de la ventana de trazar (area griz)</t>
+  </si>
+  <si>
+    <t>Konzepte erstellen, aktualisieren, löschen:</t>
+  </si>
+  <si>
+    <t>Crear, actualizar, borrar conceptos:</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Erstellen:&lt;/b&gt; Einzelner Mausklick auf die weiße Zeichenfläche</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Aktualisieren:&lt;/b&gt; Doppelklick auf bereits existierendes Konzept</t>
+  </si>
+  <si>
+    <t>Cambiar contenido de conceptos:</t>
+  </si>
+  <si>
+    <t>Inhalt von Konzepten verändern:</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Text hinzufügen:&lt;/b&gt; Verändern sie den Inhalt des Konzepts (benutzen Sie nur einzelne Worte)</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Añadir texto:&lt;/b&gt; Cambie el contenido del concepto (use solamente palabras individuales)</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Löschen:&lt;/b&gt; Doppelklick auf bereits existierendes Konzept und anschließend Klick auf "Papierkorb" Symbol in der oberen rechten Ecke, des Fensters, das sich öffnet</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Cambiar tipo e intensidad:&lt;/b&gt; Use el control deslizante para cambiar el tipo y la intensidad de la emoción que se le atribuye al concepto</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Kommentar hinzufügen:&lt;/b&gt; Schreiben Sie einen Kommentar in das Eingabefeld "Kommentar"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Añadir comentario:&lt;/b&gt; Escriba un comentario en el campo de entrade "comentario" </t>
+  </si>
+  <si>
+    <t>Verbindungen erstellen, aktualisieren, löschen:</t>
+  </si>
+  <si>
+    <t>Crear, actualizar, borrar conecciones:</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Erstellen:&lt;/b&gt; Klicken Sie auf zwei Konzepte um eine Verbindung zu zeichnen</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Crear:&lt;/b&gt; Haga clic en dos conceptos para trazar una conexión entre ellos</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Aktualisieren:&lt;/b&gt; Doppelklick auf bereits existierende Verbindung</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Actualizar:&lt;/b&gt; Haga doble clic en conexión ya existente</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Löschen:&lt;/b&gt; Doppelklick auf bereits existierende Verbindung und anschließend Klick auf "Papierkorb" Symbol in der oberen rechten Ecke, des Fensters, das sich öffnet</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Borrar:&lt;/b&gt; Haga doble clic en conexión ya existente seguido por un clic en el simbolo de "papelera" en la esquina superior derecha de la ventana que se abre</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Borrar:&lt;/b&gt; Haga doble clic en concepto ya existente seguido por un clic en el simbolo de "papelera"  en la esquina superior derecha de la ventana que se abre</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Actualizar:&lt;/b&gt; Haga doble clic en concepto ya existente</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Crear:&lt;/b&gt; Haga clic simple en el área blanco de trazar</t>
+  </si>
+  <si>
+    <t>Inhalt von Verbindung verändern:</t>
+  </si>
+  <si>
+    <t>Cambiar contenido de conecciones:</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Art und Stärke verändern:&lt;/b&gt; Benutzen Sie den Regler, um die dem Konzepts zugeordnete Emotion und deren Stärke zu verändern</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Art und Stärke verändern:&lt;/b&gt; Benutzen Sie den Regler, um die Art der Verbindung (Verstärkung oder Hemmung) und die Stärke der Verbindung zu verändern</t>
+  </si>
+  <si>
+    <t>Richtung des Einflusses</t>
+  </si>
+  <si>
+    <t>Los conceptos se refuerzan mutualmente</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Cambiar tipo e intensidad:&lt;/b&gt; Use el control deslizante para cambiar el de la conexión (reforzamineto o inhibición)</t>
+  </si>
+  <si>
+    <t>Conceptos se influyen mutualmente</t>
+  </si>
+  <si>
+    <t>Konzepte beeinflussen sich gegenseitig</t>
+  </si>
+  <si>
+    <t>Konzepte beeinflussen sich nur in eine Richtung von links nach rechts</t>
+  </si>
+  <si>
+    <t>Dirección de la influencia</t>
+  </si>
+  <si>
+    <t>La influencia entre los conceptos es unidireccional del concepto izquierdo al concepto derecho</t>
+  </si>
+  <si>
+    <t>Ein Klick auf die Buttons in der oberen Leiste bewirkt Folgendes:</t>
+  </si>
+  <si>
+    <t>Hacer clic en los botones de la barra superior lleva a los siguientes resultados:</t>
+  </si>
+  <si>
+    <t>Legende</t>
+  </si>
+  <si>
+    <t>Leyenda</t>
+  </si>
+  <si>
+    <t>Konzept</t>
+  </si>
+  <si>
+    <t>Concepto</t>
+  </si>
+  <si>
+    <t>Verbindung</t>
+  </si>
+  <si>
+    <t>Conexión</t>
+  </si>
+  <si>
+    <t>Botones</t>
+  </si>
+  <si>
+    <t>Schnellhilfe öffen</t>
+  </si>
+  <si>
+    <t>Abrir referencia rápida</t>
+  </si>
+  <si>
+    <t>CAM auf Server speichern</t>
+  </si>
+  <si>
+    <t>Guardar CAM en el servidor</t>
+  </si>
+  <si>
+    <t>CAM als Bild speichern</t>
+  </si>
+  <si>
+    <t>Guardar CAM en formato de imagen</t>
+  </si>
+  <si>
+    <t>CAM löschen</t>
+  </si>
+  <si>
+    <t>Borrar CAM</t>
+  </si>
+  <si>
+    <t>Inhalt:</t>
+  </si>
+  <si>
+    <t>Contenido:</t>
+  </si>
+  <si>
+    <t>Art und Stärke des Konzepts:</t>
+  </si>
+  <si>
+    <t>Tipo e intensidad del concepto</t>
+  </si>
+  <si>
+    <t>Konzept setzen als</t>
+  </si>
+  <si>
+    <t>Declarar que concepto es</t>
+  </si>
+  <si>
+    <t>Kommentar</t>
+  </si>
+  <si>
+    <t>Comentario</t>
+  </si>
+  <si>
+    <t>Art und Stärke der Verbindung</t>
+  </si>
+  <si>
+    <t>Tipo e intensidad de la conexión</t>
+  </si>
+  <si>
+    <t>Verstärkung</t>
+  </si>
+  <si>
+    <t>Konzepte verstärken einander</t>
+  </si>
+  <si>
+    <t>Hemmung</t>
+  </si>
+  <si>
+    <t>Reforzamiento</t>
+  </si>
+  <si>
+    <t>Inhibición</t>
+  </si>
+  <si>
+    <t>Richtung der Verbindung</t>
+  </si>
+  <si>
+    <t>Dirección de la conexión</t>
+  </si>
+  <si>
+    <t>La influencia entre los conceptos es en una sola direccion (unidireccional). Haga clic en el botón varias veces para cambiar la dirección</t>
+  </si>
+  <si>
+    <t>Konzepte beeinflussen sich nur in eine Richtung. Klicken Sie mehrfach auf den Button, um die Richtung der Beeinflussung zu ändern</t>
+  </si>
+  <si>
+    <t>Mueva su Cognitive Affective Map</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Inhibition</t>
+  </si>
+  <si>
+    <t>Por favor no cambie o minimize la pestaña hasta que haya teminado la sesión. Solo si hay una pausa.</t>
+  </si>
+  <si>
+    <t>Bitte wechseln oder minimieren Sie das Browserfenster nicht, während die Studie läuft, sondern nur, wenn es während der Studie eine Pause gibt.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Delete:&lt;/b&gt; Double click on existing concept and press on the "trash bin" symbol top right</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Add comment:&lt;/b&gt; type comment in the "Comment" section</t>
+  </si>
+  <si>
+    <t>qr_connection_21a</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Change strength:&lt;/b&gt; Use the slider to change the strength of the connection</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Stärke verändern:&lt;/b&gt; Benutzen Sie den Regler, um die Stärke der Verbindung zu verändern</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Cambiar intensidad:&lt;/b&gt; Use el control deslizante para cambiar el de la conexión (reforzamineto)</t>
+  </si>
+  <si>
+    <t>Delete Concept</t>
+  </si>
+  <si>
+    <t>Konzept löschen</t>
+  </si>
+  <si>
+    <t>Borrar concepto</t>
+  </si>
+  <si>
+    <t>cd_05button</t>
+  </si>
+  <si>
+    <t>cd_06button</t>
+  </si>
+  <si>
+    <t>Strength of Connection:</t>
+  </si>
+  <si>
+    <t>cd_07buttonDelete</t>
+  </si>
+  <si>
+    <t>Delete Connector</t>
+  </si>
+  <si>
+    <t>Verbindung löschen</t>
+  </si>
+  <si>
+    <t>Borrar conexión</t>
+  </si>
+  <si>
+    <t>nd_05buttonDelete</t>
+  </si>
+  <si>
+    <t>download Cognitive-Affective Map as a picture</t>
+  </si>
+  <si>
+    <t>delete Cognitive-Affective Map and no data will be send to the server</t>
+  </si>
+  <si>
+    <t>save Cognitive-Affective Map and send data to the server</t>
+  </si>
+  <si>
+    <t>Cognitive-Affective Map speichern und Daten zum Server senden</t>
+  </si>
+  <si>
+    <t>Cognitive-Affective Map als Bild herunterladen</t>
+  </si>
+  <si>
+    <t>Cognitive-Affective Map löschen und keine Daten werden zum Server gesendet</t>
+  </si>
+  <si>
+    <t>Borrar Cognitive-Affective Map y no se envian datos al servidor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bajar Cognitive-Affective Map en de imagen </t>
+  </si>
+  <si>
+    <t>Guardar Cognitive-Affective Map y mandar datos al servidor</t>
+  </si>
+  <si>
+    <t>cd_01a</t>
+  </si>
+  <si>
+    <t>Stärke der Verbindung:</t>
+  </si>
+  <si>
+    <t>Intensidad de la conexión</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -394,12 +814,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -414,13 +840,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,6 +876,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Michael Gorki" id="{5B6E6112-2AAC-4F24-B99C-55612389F06D}" userId="Michael Gorki" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -700,12 +1145,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C29" dT="2022-08-04T19:00:21.45" personId="{5B6E6112-2AAC-4F24-B99C-55612389F06D}" id="{A646E28B-97F6-4AE2-BCBC-80D63BDE895B}">
+    <text>I'm not sure whether "agreement or disagreement" might be an error here. I suppose it's more about the support or inhibion between concepts (that appear mentioned earlier in the table), right?</text>
+  </threadedComment>
+  <threadedComment ref="C50" dT="2022-08-04T19:41:58.14" personId="{5B6E6112-2AAC-4F24-B99C-55612389F06D}" id="{A5E30C12-9A09-4005-AC0C-695CE60E1B9A}">
+    <text>Should this realy be phrased as disagreement/agreement? For me personally disagreement/agreement would intuitively be pointing more to what I personally think or feel in terms of valence</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,15 +1169,17 @@
     <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="2" customWidth="1"/>
     <col min="3" max="4" width="25.7109375" style="2" customWidth="1"/>
-    <col min="5" max="9" width="25.7109375" customWidth="1"/>
+    <col min="5" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -730,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -738,55 +1196,79 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -795,6 +1277,12 @@
       </c>
       <c r="C6" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -807,6 +1295,12 @@
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -818,6 +1312,12 @@
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -829,6 +1329,12 @@
       <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -840,8 +1346,14 @@
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -850,6 +1362,12 @@
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -862,8 +1380,14 @@
       <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -873,27 +1397,45 @@
       <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -906,8 +1448,14 @@
       <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -917,8 +1465,14 @@
       <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D17" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -928,8 +1482,14 @@
       <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="D18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -937,396 +1497,681 @@
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="D22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="D26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="D31" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="D32" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="D33" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="D39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="D40" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="D41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="D43" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="B46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="D46" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="D47" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="D48" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="D49" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="D51" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="D55" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="C56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>108</v>
+      <c r="D57" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/languageFile.xlsx
+++ b/config/languageFile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\CAMtools_CAMEL\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\labjsSoftware\Wilhelm Studie\CAM Studie\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D43200-CF54-4522-9EEB-33DEF697B261}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99F87E3-7EE2-4CD2-BACF-749D7F4790B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="308">
   <si>
     <t>english</t>
   </si>
@@ -799,6 +799,213 @@
   </si>
   <si>
     <t>Intensidad de la conexión</t>
+  </si>
+  <si>
+    <t>popup save button (popSave)</t>
+  </si>
+  <si>
+    <t>Please return to your Cognitive-Affective Map and add additional concepts to it.</t>
+  </si>
+  <si>
+    <t>popSave_01numNodes</t>
+  </si>
+  <si>
+    <t>popSave_02numNodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please draw at least </t>
+  </si>
+  <si>
+    <t>popSave_03numNodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> concepts.</t>
+  </si>
+  <si>
+    <t>Bitte kehren Sie zu Ihrer Cognitive Affective Map zurück und fügen Sie weitere Konzepte hinzu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitte zeichnen Sie mindestens </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Konzepte.</t>
+  </si>
+  <si>
+    <t>Please return to your Cognitive-Affective Map and add text to the empty concepts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> concept(s) are empty.</t>
+  </si>
+  <si>
+    <t>popSave_01emptyNodes</t>
+  </si>
+  <si>
+    <t>popSave_02emptyNodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Konzept(e) sind leer.</t>
+  </si>
+  <si>
+    <t>Bitte kehren Sie zu Ihrer Cognitive-Affective Map zurück und ergänzen sie Text zu den leeren Konzepten.</t>
+  </si>
+  <si>
+    <t>popSave_01unconnectedA</t>
+  </si>
+  <si>
+    <t>popSave_02unconnectedA</t>
+  </si>
+  <si>
+    <t>popSave_01unconnectedB</t>
+  </si>
+  <si>
+    <t>popSave_02unconnectedB</t>
+  </si>
+  <si>
+    <t>popSave_03unconnectedB</t>
+  </si>
+  <si>
+    <t>Please return to your Cognitive-Affective Map and add additional connections to it.</t>
+  </si>
+  <si>
+    <t>Please connect all your concepts within your Cognitive-Affective Map.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please connect all your </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> distinct groups of concepts within your Cognitive-Affective Map.</t>
+  </si>
+  <si>
+    <t>Bitte kehren Sie zu Ihrer Cognitive-Affective Map zurück und fügen Sie weitere Verbindungen hinzu.</t>
+  </si>
+  <si>
+    <t>Bitte verbinden Sie alle Ihre Konzepte innerhalb Ihrer Cognitive-Affective Map.</t>
+  </si>
+  <si>
+    <t>Bitte verbinden Sie alle Ihre</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> verschiedene Gruppen von Konzepten innerhalb Ihrer Cognitive-Affective Map.</t>
+  </si>
+  <si>
+    <t>Your CAM data has been sent to the sever. Thank you for participating! You will be forwarded to the end or the final part of the study.</t>
+  </si>
+  <si>
+    <t>popSave_01savedData</t>
+  </si>
+  <si>
+    <t>Ihre CAM-Daten wurden an den Sever gesendet. Wir danken Ihnen für Ihre Teilnahme! Sie werden zum Ende oder zum letzten Teil der Studie weitergeleitet.</t>
+  </si>
+  <si>
+    <t>You would have send the CAM data successfully to a sever. To save permanently your data please use our administrative panel or host the C.A.M.E.L. software on your own server.</t>
+  </si>
+  <si>
+    <t>Sie hätten die CAM-Daten erfolgreich an einen Server gesendet. Um Ihre Daten dauerhaft zu speichern, verwenden Sie bitte unser Administrationspanel oder hosten Sie die C.A.M.E.L. Software auf Ihrem eigenen Server.</t>
+  </si>
+  <si>
+    <t>popSave_01notSavedData</t>
+  </si>
+  <si>
+    <t>ndw_01tooManyWords</t>
+  </si>
+  <si>
+    <t>ndw_03tooManyWords</t>
+  </si>
+  <si>
+    <t>ndw_02tooManyWords</t>
+  </si>
+  <si>
+    <t>Instead, please draw several connected concepts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please do not use more than </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> words for a single concept!</t>
+  </si>
+  <si>
+    <t>ndw_03tooManyWordsA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> characters for a single concept!</t>
+  </si>
+  <si>
+    <t>Instead, please choose other concepts.</t>
+  </si>
+  <si>
+    <t>You cannot change the content of predefined concepts.</t>
+  </si>
+  <si>
+    <t>ndw_01predefinedConcept</t>
+  </si>
+  <si>
+    <t>ndw_02predefinedConcept</t>
+  </si>
+  <si>
+    <t>To change the ambivalent concept again, please uncheck the box.</t>
+  </si>
+  <si>
+    <t>ndw_01ambivalentConcept</t>
+  </si>
+  <si>
+    <t>Zeichnen Sie stattdessen bitte mehrere zusammenhängende Konzepte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitte verwenden Sie nicht mehr als </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wörter für ein einzelnes Konzept!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zeichen für ein einzelnes Konzept!</t>
+  </si>
+  <si>
+    <t>Wählen Sie stattdessen bitte andere Konzepte.</t>
+  </si>
+  <si>
+    <t>Sie können den Inhalt der vordefinierten Konzepte nicht ändern.</t>
+  </si>
+  <si>
+    <t>Um den ambivalenten Begriff wieder zu ändern, deaktivieren Sie bitte das Kontrollkästchen.</t>
+  </si>
+  <si>
+    <t>Elements dialog warnings (edw)</t>
+  </si>
+  <si>
+    <t>nodes dialog warnings (ndw)</t>
+  </si>
+  <si>
+    <t>edw_01notDeleteNode</t>
+  </si>
+  <si>
+    <t>edw_01notDeleteConnector</t>
+  </si>
+  <si>
+    <t>edw_02notDeleteNode</t>
+  </si>
+  <si>
+    <t>edw_02notDeleteConnector</t>
+  </si>
+  <si>
+    <t>You cannot delete predefined concepts.</t>
+  </si>
+  <si>
+    <t>Instead, please choose other connectors.</t>
+  </si>
+  <si>
+    <t>You cannot delete predefined connectors.</t>
+  </si>
+  <si>
+    <t>Bitte wählen Sie stattdessen andere Konzepte.</t>
+  </si>
+  <si>
+    <t>Sie können keine vordefinierten Konzepte löschen.</t>
+  </si>
+  <si>
+    <t>Bitte wählen Sie stattdessen andere Verbindungen.</t>
+  </si>
+  <si>
+    <t>Sie können keine vordefinierten Verbindungen löschen.</t>
   </si>
 </sst>
 </file>
@@ -1158,15 +1365,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="2" customWidth="1"/>
     <col min="3" max="4" width="25.7109375" style="2" customWidth="1"/>
     <col min="5" max="7" width="25.7109375" customWidth="1"/>
@@ -2169,6 +2376,328 @@
         <v>225</v>
       </c>
     </row>
+    <row r="59" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/config/languageFile.xlsx
+++ b/config/languageFile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\labjsSoftware\Wilhelm Studie\CAM Studie\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\CAMtools_CAMEL\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99F87E3-7EE2-4CD2-BACF-749D7F4790B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BB2441-9914-47F5-B8B8-32219EE62989}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="326">
   <si>
     <t>english</t>
   </si>
@@ -1006,6 +1006,60 @@
   </si>
   <si>
     <t>Sie können keine vordefinierten Verbindungen löschen.</t>
+  </si>
+  <si>
+    <t>confirmSaving_01_title</t>
+  </si>
+  <si>
+    <t>confirmSaving_02_text</t>
+  </si>
+  <si>
+    <t>Elements confirm saving CAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please confirm by pressing  "Yes" that you want to save your Cognitive-Affective Map. You will be redirected to the next part of the study and you will not be able to change your Cognitive-Affective Map anymore. </t>
+  </si>
+  <si>
+    <t>Confirm Saving</t>
+  </si>
+  <si>
+    <t>Do you really want to delete your CAM? No data will be saved on the server.</t>
+  </si>
+  <si>
+    <t>confirmDeleting_01text</t>
+  </si>
+  <si>
+    <t>confirmDeleting_02message</t>
+  </si>
+  <si>
+    <t>Elements confirm deleting CAM</t>
+  </si>
+  <si>
+    <t>You CAM has been deleted. No data will be saved on the server. Default CAM has been restored.</t>
+  </si>
+  <si>
+    <t>yesButton</t>
+  </si>
+  <si>
+    <t>noButton</t>
+  </si>
+  <si>
+    <t>yes Button</t>
+  </si>
+  <si>
+    <t>no Button</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>closeButton</t>
+  </si>
+  <si>
+    <t>close Button</t>
   </si>
 </sst>
 </file>
@@ -1021,18 +1075,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1047,25 +1095,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1365,10 +1404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,9 +1415,10 @@
     <col min="1" max="1" width="29.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="2" customWidth="1"/>
     <col min="3" max="4" width="25.7109375" style="2" customWidth="1"/>
-    <col min="5" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="5" max="7" width="25.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1394,16 +1434,16 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1420,24 +1460,24 @@
       <c r="D2" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1454,7 +1494,7 @@
       <c r="D4" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1471,7 +1511,7 @@
       <c r="D5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1488,7 +1528,7 @@
       <c r="D6" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1505,7 +1545,7 @@
       <c r="D7" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1522,7 +1562,7 @@
       <c r="D8" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1539,7 +1579,7 @@
       <c r="D9" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1556,7 +1596,7 @@
       <c r="D10" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="4" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1573,7 +1613,7 @@
       <c r="D11" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1590,7 +1630,7 @@
       <c r="D12" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="4" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1607,7 +1647,7 @@
       <c r="D13" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="4" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1624,7 +1664,7 @@
       <c r="D14" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="4" t="s">
         <v>205</v>
       </c>
     </row>
@@ -1641,7 +1681,7 @@
       <c r="D15" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1658,7 +1698,7 @@
       <c r="D16" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="4" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1675,7 +1715,7 @@
       <c r="D17" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="4" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1692,7 +1732,7 @@
       <c r="D18" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="4" t="s">
         <v>155</v>
       </c>
     </row>
@@ -1709,7 +1749,7 @@
       <c r="D19" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="4" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1726,7 +1766,7 @@
       <c r="D20" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="4" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1743,7 +1783,7 @@
       <c r="D21" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="4" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1760,7 +1800,7 @@
       <c r="D22" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="4" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1777,7 +1817,7 @@
       <c r="D23" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="4" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1794,7 +1834,7 @@
       <c r="D24" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="4" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1811,7 +1851,7 @@
       <c r="D25" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="4" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1828,7 +1868,7 @@
       <c r="D26" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="4" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1845,7 +1885,7 @@
       <c r="D27" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="4" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1862,7 +1902,7 @@
       <c r="D28" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="4" t="s">
         <v>158</v>
       </c>
     </row>
@@ -1879,7 +1919,7 @@
       <c r="D29" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="4" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1896,7 +1936,7 @@
       <c r="D30" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="4" t="s">
         <v>215</v>
       </c>
     </row>
@@ -1913,7 +1953,7 @@
       <c r="D31" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="4" t="s">
         <v>167</v>
       </c>
     </row>
@@ -1930,7 +1970,7 @@
       <c r="D32" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="4" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1947,7 +1987,7 @@
       <c r="D33" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="4" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1964,7 +2004,7 @@
       <c r="D34" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="4" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1981,7 +2021,7 @@
       <c r="D35" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="4" t="s">
         <v>235</v>
       </c>
     </row>
@@ -1998,7 +2038,7 @@
       <c r="D36" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="4" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2015,7 +2055,7 @@
       <c r="D37" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="4" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2032,7 +2072,7 @@
       <c r="D38" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="4" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2049,7 +2089,7 @@
       <c r="D39" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="4" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2066,7 +2106,7 @@
       <c r="D40" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="4" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2083,7 +2123,7 @@
       <c r="D41" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="4" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2100,7 +2140,7 @@
       <c r="D42" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="4" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2117,7 +2157,7 @@
       <c r="D43" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="4" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2134,7 +2174,7 @@
       <c r="D44" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="4" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2151,7 +2191,7 @@
       <c r="D45" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="4" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2168,7 +2208,7 @@
       <c r="D46" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="4" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2185,7 +2225,7 @@
       <c r="D47" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="4" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2202,7 +2242,7 @@
       <c r="D48" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="4" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2219,7 +2259,7 @@
       <c r="D49" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="4" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2236,7 +2276,7 @@
       <c r="D50" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="4" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2253,7 +2293,7 @@
       <c r="D51" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="4" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2270,7 +2310,7 @@
       <c r="D52" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="4" t="s">
         <v>238</v>
       </c>
     </row>
@@ -2287,7 +2327,7 @@
       <c r="D53" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="4" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2304,7 +2344,7 @@
       <c r="D54" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H54" s="4" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2321,7 +2361,7 @@
       <c r="D55" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="4" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2338,7 +2378,7 @@
       <c r="D56" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H56" s="4" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2355,7 +2395,7 @@
       <c r="D57" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H57" s="4" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2372,7 +2412,7 @@
       <c r="D58" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2696,6 +2736,83 @@
       </c>
       <c r="D81" s="2" t="s">
         <v>307</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/config/languageFile.xlsx
+++ b/config/languageFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\CAMtools_CAMEL\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BB2441-9914-47F5-B8B8-32219EE62989}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F449DE3-7F86-44F4-ADC2-541AB7725886}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1406,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2771,7 +2771,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>315</v>
       </c>

--- a/config/languageFile.xlsx
+++ b/config/languageFile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fenn\Nextcloud\Artikel Cognitive Affective Maps Tools\CAM tools\CAMtools_CAMEL\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35ACCA7-EEB7-4EB5-9480-05EA20B98ADF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F186A8D5-2814-465E-A9F2-86CE3E03BB1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="546">
   <si>
     <t>english</t>
   </si>
@@ -1889,13 +1889,25 @@
   </si>
   <si>
     <t>注释:</t>
+  </si>
+  <si>
+    <t>alert_loading</t>
+  </si>
+  <si>
+    <t>Thank you for waiting. The CAM has loaded.</t>
+  </si>
+  <si>
+    <t>Danke, dass Sie gewartet haben. Die CAM wurde geladen.</t>
+  </si>
+  <si>
+    <t>alert loading (to force fullscreen and avoid errors)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1929,6 +1941,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1956,7 +1975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1971,10 +1990,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2273,10 +2295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2289,7 +2311,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2310,15 +2332,15 @@
       <c r="G1" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="105">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2339,9 +2361,11 @@
       <c r="G2" s="2" t="s">
         <v>438</v>
       </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2362,9 +2386,11 @@
       <c r="G3" s="2" t="s">
         <v>439</v>
       </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" ht="120">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2385,9 +2411,11 @@
       <c r="G4" s="2" t="s">
         <v>441</v>
       </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2408,9 +2436,11 @@
       <c r="G5" s="2" t="s">
         <v>440</v>
       </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" ht="60">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2431,9 +2461,11 @@
       <c r="G6" s="2" t="s">
         <v>442</v>
       </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2454,9 +2486,11 @@
       <c r="G7" s="2" t="s">
         <v>443</v>
       </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2477,9 +2511,11 @@
       <c r="G8" s="2" t="s">
         <v>444</v>
       </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2500,9 +2536,11 @@
       <c r="G9" s="2" t="s">
         <v>445</v>
       </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2523,9 +2561,11 @@
       <c r="G10" s="2" t="s">
         <v>446</v>
       </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" ht="60">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2546,9 +2586,11 @@
       <c r="G11" s="2" t="s">
         <v>447</v>
       </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="30">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2560,18 +2602,20 @@
       <c r="D12" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>160</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>465</v>
       </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" ht="30">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2583,18 +2627,20 @@
       <c r="D13" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>129</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>448</v>
       </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="30">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2615,9 +2661,11 @@
       <c r="G14" s="2" t="s">
         <v>449</v>
       </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="60">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2638,9 +2686,11 @@
       <c r="G15" s="2" t="s">
         <v>450</v>
       </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" ht="30">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2661,9 +2711,11 @@
       <c r="G16" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="45">
-      <c r="A17" s="1" t="s">
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" ht="45">
+      <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2684,9 +2736,11 @@
       <c r="G17" s="2" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="45">
-      <c r="A18" s="1" t="s">
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" ht="45">
+      <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2707,9 +2761,11 @@
       <c r="G18" s="2" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="105">
-      <c r="A19" s="1" t="s">
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" ht="105">
+      <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2730,9 +2786,11 @@
       <c r="G19" s="2" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="30">
-      <c r="A20" s="1" t="s">
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" ht="30">
+      <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2753,9 +2811,11 @@
       <c r="G20" s="2" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="60">
-      <c r="A21" s="1" t="s">
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="60">
+      <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2776,9 +2836,11 @@
       <c r="G21" s="2" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="105">
-      <c r="A22" s="1" t="s">
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" ht="105">
+      <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2799,9 +2861,11 @@
       <c r="G22" s="2" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="75">
-      <c r="A23" s="1" t="s">
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" ht="75">
+      <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2822,9 +2886,11 @@
       <c r="G23" s="2" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="30">
-      <c r="A24" s="1" t="s">
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" ht="30">
+      <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2845,9 +2911,11 @@
       <c r="G24" s="2" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="60">
-      <c r="A25" s="1" t="s">
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" ht="60">
+      <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2868,9 +2936,11 @@
       <c r="G25" s="2" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="45">
-      <c r="A26" s="1" t="s">
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" ht="45">
+      <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2891,9 +2961,11 @@
       <c r="G26" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="105">
-      <c r="A27" s="1" t="s">
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" ht="105">
+      <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2914,9 +2986,11 @@
       <c r="G27" s="2" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="30">
-      <c r="A28" s="1" t="s">
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" ht="30">
+      <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2937,9 +3011,11 @@
       <c r="G28" s="2" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="120">
-      <c r="A29" s="1" t="s">
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" ht="120">
+      <c r="A29" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2960,9 +3036,11 @@
       <c r="G29" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="75">
-      <c r="A30" s="1" t="s">
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" ht="75">
+      <c r="A30" s="2" t="s">
         <v>205</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2983,9 +3061,11 @@
       <c r="G30" s="2" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3006,9 +3086,11 @@
       <c r="G31" s="2" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="30">
-      <c r="A32" s="1" t="s">
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" ht="30">
+      <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3029,9 +3111,11 @@
       <c r="G32" s="2" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="60">
-      <c r="A33" s="1" t="s">
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" ht="60">
+      <c r="A33" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3052,9 +3136,11 @@
       <c r="G33" s="2" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="45">
-      <c r="A34" s="1" t="s">
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" ht="45">
+      <c r="A34" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3075,9 +3161,11 @@
       <c r="G34" s="2" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="60">
-      <c r="A35" s="1" t="s">
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" ht="60">
+      <c r="A35" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3098,9 +3186,11 @@
       <c r="G35" s="2" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="45">
-      <c r="A36" s="1" t="s">
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" ht="45">
+      <c r="A36" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3121,9 +3211,11 @@
       <c r="G36" s="2" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="60">
-      <c r="A37" s="1" t="s">
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" ht="60">
+      <c r="A37" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -3144,9 +3236,11 @@
       <c r="G37" s="2" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="1" t="s">
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -3167,9 +3261,11 @@
       <c r="G38" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="1" t="s">
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3190,9 +3286,11 @@
       <c r="G39" s="2" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="1" t="s">
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3213,9 +3311,11 @@
       <c r="G40" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="1" t="s">
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3236,9 +3336,11 @@
       <c r="G41" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="30">
-      <c r="A42" s="1" t="s">
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" ht="30">
+      <c r="A42" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3259,9 +3361,11 @@
       <c r="G42" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="30">
-      <c r="A43" s="1" t="s">
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" ht="30">
+      <c r="A43" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3282,9 +3386,11 @@
       <c r="G43" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="30">
-      <c r="A44" s="1" t="s">
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" ht="30">
+      <c r="A44" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3305,9 +3411,11 @@
       <c r="G44" s="2" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="1" t="s">
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3328,9 +3436,11 @@
       <c r="G45" s="2" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1" t="s">
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -3351,9 +3461,11 @@
       <c r="G46" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="30">
-      <c r="A47" s="1" t="s">
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" ht="30">
+      <c r="A47" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3374,9 +3486,11 @@
       <c r="G47" s="2" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="1" t="s">
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3397,9 +3511,11 @@
       <c r="G48" s="2" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="1" t="s">
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -3420,9 +3536,11 @@
       <c r="G49" s="2" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="1" t="s">
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -3443,9 +3561,11 @@
       <c r="G50" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="30">
-      <c r="A51" s="1" t="s">
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9" ht="30">
+      <c r="A51" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -3466,9 +3586,11 @@
       <c r="G51" s="2" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="30">
-      <c r="A52" s="1" t="s">
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9" ht="30">
+      <c r="A52" s="2" t="s">
         <v>229</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -3489,9 +3611,11 @@
       <c r="G52" s="2" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="30">
-      <c r="A53" s="5" t="s">
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:9" ht="30">
+      <c r="A53" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -3503,18 +3627,20 @@
       <c r="D53" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="5" t="s">
         <v>194</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="30">
-      <c r="A54" s="5" t="s">
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9" ht="30">
+      <c r="A54" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -3526,18 +3652,20 @@
       <c r="D54" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="5" t="s">
         <v>193</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="30">
-      <c r="A55" s="1" t="s">
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9" ht="30">
+      <c r="A55" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -3558,9 +3686,11 @@
       <c r="G55" s="2" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="30">
-      <c r="A56" s="1" t="s">
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9" ht="30">
+      <c r="A56" s="2" t="s">
         <v>212</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -3581,9 +3711,11 @@
       <c r="G56" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="90">
-      <c r="A57" s="1" t="s">
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9" ht="90">
+      <c r="A57" s="2" t="s">
         <v>213</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -3604,9 +3736,11 @@
       <c r="G57" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="30">
-      <c r="A58" s="1" t="s">
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9" ht="30">
+      <c r="A58" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -3627,9 +3761,11 @@
       <c r="G58" s="2" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="75">
-      <c r="A59" s="1" t="s">
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9" ht="75">
+      <c r="A59" s="2" t="s">
         <v>244</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -3650,9 +3786,11 @@
       <c r="G59" s="2" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="30">
-      <c r="A60" s="1" t="s">
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:9" ht="30">
+      <c r="A60" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -3673,9 +3811,11 @@
       <c r="G60" s="2" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="60">
-      <c r="A61" s="1" t="s">
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:9" ht="60">
+      <c r="A61" s="2" t="s">
         <v>531</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -3688,9 +3828,11 @@
         <v>533</v>
       </c>
       <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="1:7" ht="30">
-      <c r="A62" s="1" t="s">
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9" ht="30">
+      <c r="A62" s="2" t="s">
         <v>532</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -3703,9 +3845,11 @@
         <v>534</v>
       </c>
       <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="1:7" ht="60">
-      <c r="A63" s="1" t="s">
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="1:9" ht="60">
+      <c r="A63" s="2" t="s">
         <v>234</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -3726,9 +3870,11 @@
       <c r="G63" s="2" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="30">
-      <c r="A64" s="1" t="s">
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:9" ht="30">
+      <c r="A64" s="2" t="s">
         <v>235</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -3749,9 +3895,11 @@
       <c r="G64" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="30">
-      <c r="A65" s="1" t="s">
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="1:9" ht="30">
+      <c r="A65" s="2" t="s">
         <v>237</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -3772,9 +3920,11 @@
       <c r="G65" s="2" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="75">
-      <c r="A66" s="1" t="s">
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="1:9" ht="75">
+      <c r="A66" s="2" t="s">
         <v>248</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -3795,9 +3945,11 @@
       <c r="G66" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="60">
-      <c r="A67" s="1" t="s">
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="1:9" ht="60">
+      <c r="A67" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -3818,9 +3970,11 @@
       <c r="G67" s="2" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="75">
-      <c r="A68" s="1" t="s">
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="1:9" ht="75">
+      <c r="A68" s="2" t="s">
         <v>250</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -3841,9 +3995,11 @@
       <c r="G68" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="30">
-      <c r="A69" s="1" t="s">
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="1:9" ht="30">
+      <c r="A69" s="2" t="s">
         <v>251</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -3864,9 +4020,11 @@
       <c r="G69" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="45">
-      <c r="A70" s="1" t="s">
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="1:9" ht="45">
+      <c r="A70" s="2" t="s">
         <v>252</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -3887,9 +4045,11 @@
       <c r="G70" s="2" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="105">
-      <c r="A71" s="1" t="s">
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="1:9" ht="105">
+      <c r="A71" s="2" t="s">
         <v>262</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -3910,9 +4070,11 @@
       <c r="G71" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="150">
-      <c r="A72" s="1" t="s">
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="1:9" ht="150">
+      <c r="A72" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -3933,9 +4095,11 @@
       <c r="G72" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="60">
-      <c r="A73" s="1" t="s">
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="1:9" ht="60">
+      <c r="A73" s="2" t="s">
         <v>523</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -3956,9 +4120,11 @@
       <c r="G73" s="4" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="60">
-      <c r="A74" s="1" t="s">
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="1:9" ht="60">
+      <c r="A74" s="2" t="s">
         <v>267</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -3979,9 +4145,11 @@
       <c r="G74" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="30">
-      <c r="A75" s="1" t="s">
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="1:9" ht="30">
+      <c r="A75" s="2" t="s">
         <v>269</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -4002,9 +4170,11 @@
       <c r="G75" s="2" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="30">
-      <c r="A76" s="1" t="s">
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="1:9" ht="30">
+      <c r="A76" s="2" t="s">
         <v>268</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -4025,9 +4195,11 @@
       <c r="G76" s="2" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="30">
-      <c r="A77" s="1" t="s">
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="1:9" ht="30">
+      <c r="A77" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -4048,9 +4220,11 @@
       <c r="G77" s="2" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="30">
-      <c r="A78" s="1" t="s">
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="1:9" ht="30">
+      <c r="A78" s="2" t="s">
         <v>277</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -4071,9 +4245,11 @@
       <c r="G78" s="2" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="45">
-      <c r="A79" s="1" t="s">
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="1:9" ht="45">
+      <c r="A79" s="2" t="s">
         <v>278</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -4094,9 +4270,11 @@
       <c r="G79" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="60">
-      <c r="A80" s="1" t="s">
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="1:9" ht="60">
+      <c r="A80" s="2" t="s">
         <v>280</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -4117,9 +4295,11 @@
       <c r="G80" s="2" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="45">
-      <c r="A81" s="1" t="s">
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="1:9" ht="45">
+      <c r="A81" s="2" t="s">
         <v>289</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -4140,9 +4320,11 @@
       <c r="G81" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="45">
-      <c r="A82" s="1" t="s">
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="1:9" ht="45">
+      <c r="A82" s="2" t="s">
         <v>291</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -4163,9 +4345,11 @@
       <c r="G82" s="2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="45">
-      <c r="A83" s="1" t="s">
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="1:9" ht="45">
+      <c r="A83" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -4186,9 +4370,11 @@
       <c r="G83" s="2" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="45">
-      <c r="A84" s="1" t="s">
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="1:9" ht="45">
+      <c r="A84" s="2" t="s">
         <v>292</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -4209,9 +4395,11 @@
       <c r="G84" s="2" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="45">
-      <c r="A85" s="1" t="s">
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="1:9" ht="45">
+      <c r="A85" s="2" t="s">
         <v>300</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -4232,9 +4420,11 @@
       <c r="G85" s="2" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="150">
-      <c r="A86" s="1" t="s">
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="1:9" ht="150">
+      <c r="A86" s="2" t="s">
         <v>301</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -4255,9 +4445,11 @@
       <c r="G86" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="75">
-      <c r="A87" s="1" t="s">
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="1:9" ht="75">
+      <c r="A87" s="2" t="s">
         <v>305</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -4278,9 +4470,11 @@
       <c r="G87" s="2" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="90">
-      <c r="A88" s="1" t="s">
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="1:9" ht="90">
+      <c r="A88" s="2" t="s">
         <v>306</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -4301,9 +4495,11 @@
       <c r="G88" s="2" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="1" t="s">
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="2" t="s">
         <v>309</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -4324,9 +4520,11 @@
       <c r="G89" s="2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="1" t="s">
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="2" t="s">
         <v>310</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -4347,9 +4545,11 @@
       <c r="G90" s="2" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="1" t="s">
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="2" t="s">
         <v>315</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -4370,9 +4570,11 @@
       <c r="G91" s="2" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="30">
-      <c r="A92" s="1" t="s">
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92" spans="1:9" ht="30">
+      <c r="A92" s="2" t="s">
         <v>352</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -4393,6 +4595,25 @@
       <c r="G92" s="2" t="s">
         <v>517</v>
       </c>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93" spans="1:9" ht="45">
+      <c r="A93" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
